--- a/Gruppe_6/ACT/visc_df2_exp2.xlsx
+++ b/Gruppe_6/ACT/visc_df2_exp2.xlsx
@@ -374,7 +374,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.0005415633649183183</v>
+        <v>0.0004751163652940313</v>
       </c>
     </row>
     <row r="3">
@@ -382,7 +382,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0004443030055044161</v>
+        <v>0.0003897893445881644</v>
       </c>
     </row>
     <row r="4">
@@ -390,7 +390,7 @@
         <v>2.5</v>
       </c>
       <c r="B4">
-        <v>0.001433978510096466</v>
+        <v>0.001268269807764475</v>
       </c>
     </row>
     <row r="5">
@@ -398,7 +398,7 @@
         <v>2.5</v>
       </c>
       <c r="B5">
-        <v>0.001585269820794717</v>
+        <v>0.00140207809023504</v>
       </c>
     </row>
     <row r="6">
@@ -406,7 +406,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.005508749829578188</v>
+        <v>0.004912121441999109</v>
       </c>
     </row>
     <row r="7">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>0.004101658972990312</v>
+        <v>0.003657426387528747</v>
       </c>
     </row>
     <row r="8">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.08216650890343669</v>
+        <v>0.07367018612716308</v>
       </c>
     </row>
     <row r="9">
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.07861610419773261</v>
+        <v>0.07048690647969308</v>
       </c>
     </row>
   </sheetData>
